--- a/DB Specification/ENCLICK_테이블 명세서_ORDER_DTL.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ORDER_DTL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Downloads\ENCLICK_테이블명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E23AB-CE3D-4356-A3A4-D760CF7628A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22612B76-F43E-481E-BD3C-D33C18B95806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11505" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ORDER_MST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +388,14 @@
   </si>
   <si>
     <t>주문상세UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +666,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,9 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="104" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1204,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -1228,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -1248,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -1365,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -1378,16 +1379,16 @@
         <v>7</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>66</v>
@@ -1402,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -1415,16 +1416,16 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="J16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>66</v>
@@ -1442,12 +1443,14 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1678,8 +1681,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="47" t="s">
-        <v>80</v>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1695,8 +1698,8 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="47" t="s">
-        <v>76</v>
+      <c r="C33" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
@@ -1796,43 +1799,18 @@
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_DTL', @level2type=N'COLUMN',@level2name=N'' 
-</v>
-      </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_DTL', @level2type=N'COLUMN',@level2name=N'' 
-</v>
-      </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_DTL', @level2type=N'COLUMN',@level2name=N'' 
-</v>
-      </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_DTL', @level2type=N'COLUMN',@level2name=N'' 
-</v>
-      </c>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_DTL', @level2type=N'COLUMN',@level2name=N'' 
-</v>
-      </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2005,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2019,13 +1997,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">

--- a/DB Specification/ENCLICK_테이블 명세서_ORDER_DTL.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ORDER_DTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22612B76-F43E-481E-BD3C-D33C18B95806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F77E4-A85B-410D-8100-A4B5202F835D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11505" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPTION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPTION_DETA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,13 +370,6 @@
     <t>OPTION_DETA</t>
   </si>
   <si>
-    <t>OPTION_DETA_ID</t>
-  </si>
-  <si>
-    <t>OPTION_DETA_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ORDER_MST_UUID</t>
   </si>
   <si>
@@ -396,6 +385,14 @@
   </si>
   <si>
     <t>DEFAULT(getdate())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION_DETA_CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -1366,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -1382,13 +1379,13 @@
         <v>76</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>66</v>
@@ -1425,7 +1422,7 @@
         <v>75</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>66</v>
@@ -1443,13 +1440,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1776,8 +1773,8 @@
     </row>
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="str">
-        <f t="shared" ref="B41:B48" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "&amp; CHAR(10)</f>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'옵션상세ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_DTL', @level2type=N'COLUMN',@level2name=N'OPTION_ID' 
+        <f t="shared" ref="B41:B43" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "&amp; CHAR(10)</f>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'옵션상세ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'ORDER_DTL', @level2type=N'COLUMN',@level2name=N'OPTION_CD' 
 </v>
       </c>
       <c r="J41" s="4"/>
@@ -1838,7 +1835,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1983,13 +1980,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2000,10 +1997,10 @@
         <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2062,7 +2059,7 @@
       <c r="B18" s="29"/>
       <c r="C18" s="23" t="str">
         <f>B9</f>
-        <v>OPTION_ID</v>
+        <v>OPTION_CD</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IF(C19&lt;&gt;"",",","")</f>
@@ -2093,7 +2090,7 @@
       <c r="B21" s="29"/>
       <c r="C21" s="35" t="str">
         <f>D9</f>
-        <v>OPTION_DETA_ID</v>
+        <v>OPTION_DETA_CD</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>IF(C22&lt;&gt;"",",","")</f>
@@ -2123,7 +2120,7 @@
       </c>
       <c r="E24" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C18&amp;"_TO_"&amp;C24&amp;"_1"</f>
-        <v>FK_OPTION_ID_TO_ORDER_DTL_1</v>
+        <v>FK_OPTION_CD_TO_ORDER_DTL_1</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>55</v>
